--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H2">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I2">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J2">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>29.59918877487578</v>
+        <v>23.12104377848333</v>
       </c>
       <c r="R2">
-        <v>266.392698973882</v>
+        <v>208.08939400635</v>
       </c>
       <c r="S2">
-        <v>0.05902835906306383</v>
+        <v>0.03356638728697093</v>
       </c>
       <c r="T2">
-        <v>0.05902835906306381</v>
+        <v>0.03356638728697092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H3">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I3">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J3">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>47.70861872390223</v>
+        <v>39.19299174066666</v>
       </c>
       <c r="R3">
-        <v>429.3775685151201</v>
+        <v>352.736925666</v>
       </c>
       <c r="S3">
-        <v>0.09514319793884721</v>
+        <v>0.05689912411854648</v>
       </c>
       <c r="T3">
-        <v>0.09514319793884719</v>
+        <v>0.05689912411854648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H4">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I4">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J4">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>15.07275081060011</v>
+        <v>37.284391679375</v>
       </c>
       <c r="R4">
-        <v>135.654757295401</v>
+        <v>335.559525114375</v>
       </c>
       <c r="S4">
-        <v>0.03005892336047387</v>
+        <v>0.05412827997123892</v>
       </c>
       <c r="T4">
-        <v>0.03005892336047387</v>
+        <v>0.05412827997123892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H5">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I5">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J5">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>7.643347079964667</v>
+        <v>6.612208854483334</v>
       </c>
       <c r="R5">
-        <v>68.790123719682</v>
+        <v>59.50987969035</v>
       </c>
       <c r="S5">
-        <v>0.01524279058156952</v>
+        <v>0.009599392023922073</v>
       </c>
       <c r="T5">
-        <v>0.01524279058156952</v>
+        <v>0.009599392023922073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.005528</v>
       </c>
       <c r="I6">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J6">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>62.84247222464177</v>
+        <v>59.75432106784178</v>
       </c>
       <c r="R6">
-        <v>565.5822500217761</v>
+        <v>537.788889610576</v>
       </c>
       <c r="S6">
-        <v>0.125323975704207</v>
+        <v>0.08674940034064298</v>
       </c>
       <c r="T6">
-        <v>0.125323975704207</v>
+        <v>0.08674940034064298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.005528</v>
       </c>
       <c r="I7">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J7">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
         <v>101.2908688084622</v>
       </c>
       <c r="R7">
-        <v>911.61781927616</v>
+        <v>911.6178192761599</v>
       </c>
       <c r="S7">
-        <v>0.2019999203123665</v>
+        <v>0.1470508236406978</v>
       </c>
       <c r="T7">
-        <v>0.2019999203123665</v>
+        <v>0.1470508236406978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.005528</v>
       </c>
       <c r="I8">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J8">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>32.00117852446311</v>
+        <v>96.35825841486665</v>
       </c>
       <c r="R8">
-        <v>288.010606720168</v>
+        <v>867.2243257338</v>
       </c>
       <c r="S8">
-        <v>0.06381854147254894</v>
+        <v>0.1398898186102395</v>
       </c>
       <c r="T8">
-        <v>0.06381854147254894</v>
+        <v>0.1398898186102395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.005528</v>
       </c>
       <c r="I9">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J9">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>16.22770239513067</v>
+        <v>17.08867707893511</v>
       </c>
       <c r="R9">
-        <v>146.049321556176</v>
+        <v>153.798093710416</v>
       </c>
       <c r="S9">
-        <v>0.03236219245851051</v>
+        <v>0.02480879144337426</v>
       </c>
       <c r="T9">
-        <v>0.0323621924585105</v>
+        <v>0.02480879144337426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H10">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I10">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J10">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>52.35471811827111</v>
+        <v>65.96087646921755</v>
       </c>
       <c r="R10">
-        <v>471.1924630644401</v>
+        <v>593.6478882229579</v>
       </c>
       <c r="S10">
-        <v>0.104408709415509</v>
+        <v>0.09575987773589345</v>
       </c>
       <c r="T10">
-        <v>0.104408709415509</v>
+        <v>0.09575987773589344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H11">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I11">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J11">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>84.38647775448889</v>
+        <v>111.8117378883644</v>
       </c>
       <c r="R11">
-        <v>759.4782997904001</v>
+        <v>1006.30564099528</v>
       </c>
       <c r="S11">
-        <v>0.1682882374528902</v>
+        <v>0.1623246827932054</v>
       </c>
       <c r="T11">
-        <v>0.1682882374528902</v>
+        <v>0.1623246827932054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H12">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I12">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J12">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>26.66051512282444</v>
+        <v>106.3667876483083</v>
       </c>
       <c r="R12">
-        <v>239.94463610542</v>
+        <v>957.3010888347749</v>
       </c>
       <c r="S12">
-        <v>0.0531678915745193</v>
+        <v>0.1544198792615372</v>
       </c>
       <c r="T12">
-        <v>0.0531678915745193</v>
+        <v>0.1544198792615372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H13">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I13">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J13">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N13">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O13">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P13">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q13">
-        <v>13.51946787782667</v>
+        <v>18.86364195396422</v>
       </c>
       <c r="R13">
-        <v>121.67521090044</v>
+        <v>169.772777585678</v>
       </c>
       <c r="S13">
-        <v>0.02696127959125998</v>
+        <v>0.02738562832785099</v>
       </c>
       <c r="T13">
-        <v>0.02696127959125998</v>
+        <v>0.02738562832785099</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H14">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I14">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J14">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N14">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q14">
-        <v>3.590362799088</v>
+        <v>1.112305491498667</v>
       </c>
       <c r="R14">
-        <v>32.313265191792</v>
+        <v>10.010749423488</v>
       </c>
       <c r="S14">
-        <v>0.007160102463724455</v>
+        <v>0.001614809316861988</v>
       </c>
       <c r="T14">
-        <v>0.007160102463724455</v>
+        <v>0.001614809316861988</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H15">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I15">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J15">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N15">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O15">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P15">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q15">
-        <v>5.787025150080001</v>
+        <v>1.885493594453333</v>
       </c>
       <c r="R15">
-        <v>52.08322635072</v>
+        <v>16.96944235008</v>
       </c>
       <c r="S15">
-        <v>0.01154080948177394</v>
+        <v>0.002737298922353196</v>
       </c>
       <c r="T15">
-        <v>0.01154080948177394</v>
+        <v>0.002737298922353196</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H16">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I16">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J16">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N16">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q16">
-        <v>1.828315100184</v>
+        <v>1.7936748016</v>
       </c>
       <c r="R16">
-        <v>16.454835901656</v>
+        <v>16.1430732144</v>
       </c>
       <c r="S16">
-        <v>0.003646128312330261</v>
+        <v>0.00260399935375823</v>
       </c>
       <c r="T16">
-        <v>0.003646128312330261</v>
+        <v>0.00260399935375823</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H17">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I17">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J17">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N17">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O17">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P17">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q17">
-        <v>0.927133146288</v>
+        <v>0.3180996623786667</v>
       </c>
       <c r="R17">
-        <v>8.344198316591999</v>
+        <v>2.862896961408</v>
       </c>
       <c r="S17">
-        <v>0.001848940816405392</v>
+        <v>0.0004618068529065961</v>
       </c>
       <c r="T17">
-        <v>0.001848940816405392</v>
+        <v>0.0004618068529065961</v>
       </c>
     </row>
   </sheetData>
